--- a/Test Cases/Negative Test Cases/Result after admin actions Test Suite.xlsx
+++ b/Test Cases/Negative Test Cases/Result after admin actions Test Suite.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
     <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
@@ -13,9 +13,134 @@
 </workbook>
 </file>
 
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="86" uniqueCount="40">
+  <si>
+    <t>Test Case № 1</t>
+  </si>
+  <si>
+    <t>Passed</t>
+  </si>
+  <si>
+    <t>Steps to reproduce :</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Expected Result : </t>
+  </si>
+  <si>
+    <t>Try to log in with deleted user profile</t>
+  </si>
+  <si>
+    <t>1. Log in with admin profile</t>
+  </si>
+  <si>
+    <t>Admin home page appears</t>
+  </si>
+  <si>
+    <t>2. Navigate to Profiles page</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Profiles page appears</t>
+  </si>
+  <si>
+    <t>3. Delete a user</t>
+  </si>
+  <si>
+    <t>User is deleted</t>
+  </si>
+  <si>
+    <t>4. Log out</t>
+  </si>
+  <si>
+    <t>Log out successful</t>
+  </si>
+  <si>
+    <t>5. Try to log in with the deleted user from #3</t>
+  </si>
+  <si>
+    <t>Error "Invalid username and/or password" appears</t>
+  </si>
+  <si>
+    <t>Try to view deleted product</t>
+  </si>
+  <si>
+    <t>2. Navigate to supplements page</t>
+  </si>
+  <si>
+    <t>Iteration 1</t>
+  </si>
+  <si>
+    <t>Iteration 2</t>
+  </si>
+  <si>
+    <t>supplements page appears</t>
+  </si>
+  <si>
+    <t>3. Delete a product</t>
+  </si>
+  <si>
+    <t>Product is deleted</t>
+  </si>
+  <si>
+    <t>5. Check the supplements page if the deleted product from #3 is there</t>
+  </si>
+  <si>
+    <t>Product is not visible any more</t>
+  </si>
+  <si>
+    <t>2. Navigate to Clothing page</t>
+  </si>
+  <si>
+    <t>Test Case № 2</t>
+  </si>
+  <si>
+    <t>Broughts from the site increases without purchase</t>
+  </si>
+  <si>
+    <t>1. Log in user profile</t>
+  </si>
+  <si>
+    <t>User home page appears</t>
+  </si>
+  <si>
+    <t>Clothing page appears</t>
+  </si>
+  <si>
+    <t>3. Add product to the cart</t>
+  </si>
+  <si>
+    <t>Product is added</t>
+  </si>
+  <si>
+    <t>4. Continue to checkout</t>
+  </si>
+  <si>
+    <t>Redirected to PayPal</t>
+  </si>
+  <si>
+    <t>5. Don’t pay for the product</t>
+  </si>
+  <si>
+    <t>6. Log in with admin profile</t>
+  </si>
+  <si>
+    <t>7. Go to profiles page</t>
+  </si>
+  <si>
+    <t>Profiles page appears</t>
+  </si>
+  <si>
+    <t>8. Check the broughts from site for the user from step #1</t>
+  </si>
+  <si>
+    <t>Number has not increased</t>
+  </si>
+</sst>
+</file>
+
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -23,13 +148,26 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF00B050"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -44,14 +182,24 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleMedium9"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
@@ -98,7 +246,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -133,7 +281,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -341,13 +489,343 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:D36"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A28" sqref="A28"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
-  <sheetData/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="19" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="64.5703125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="16.7109375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="44.42578125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C1" s="1"/>
+      <c r="D1" s="2" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>2</v>
+      </c>
+      <c r="B2" t="s">
+        <v>5</v>
+      </c>
+      <c r="C2" t="s">
+        <v>3</v>
+      </c>
+      <c r="D2" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B3" t="s">
+        <v>7</v>
+      </c>
+      <c r="C3" t="s">
+        <v>3</v>
+      </c>
+      <c r="D3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B4" t="s">
+        <v>9</v>
+      </c>
+      <c r="C4" t="s">
+        <v>3</v>
+      </c>
+      <c r="D4" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B5" t="s">
+        <v>11</v>
+      </c>
+      <c r="C5" t="s">
+        <v>3</v>
+      </c>
+      <c r="D5" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B6" t="s">
+        <v>13</v>
+      </c>
+      <c r="C6" t="s">
+        <v>3</v>
+      </c>
+      <c r="D6" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A10" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B10" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="C10" s="1"/>
+      <c r="D10" s="2" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>2</v>
+      </c>
+      <c r="B11" t="s">
+        <v>5</v>
+      </c>
+      <c r="C11" t="s">
+        <v>3</v>
+      </c>
+      <c r="D11" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B12" t="s">
+        <v>16</v>
+      </c>
+      <c r="C12" t="s">
+        <v>3</v>
+      </c>
+      <c r="D12" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B13" t="s">
+        <v>20</v>
+      </c>
+      <c r="C13" t="s">
+        <v>3</v>
+      </c>
+      <c r="D13" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B14" t="s">
+        <v>11</v>
+      </c>
+      <c r="C14" t="s">
+        <v>3</v>
+      </c>
+      <c r="D14" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B15" t="s">
+        <v>22</v>
+      </c>
+      <c r="C15" t="s">
+        <v>3</v>
+      </c>
+      <c r="D15" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A19" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B19" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="C19" s="1"/>
+      <c r="D19" s="2" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A20" t="s">
+        <v>2</v>
+      </c>
+      <c r="B20" t="s">
+        <v>5</v>
+      </c>
+      <c r="C20" t="s">
+        <v>3</v>
+      </c>
+      <c r="D20" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B21" t="s">
+        <v>24</v>
+      </c>
+      <c r="C21" t="s">
+        <v>3</v>
+      </c>
+      <c r="D21" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B22" t="s">
+        <v>20</v>
+      </c>
+      <c r="C22" t="s">
+        <v>3</v>
+      </c>
+      <c r="D22" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B23" t="s">
+        <v>11</v>
+      </c>
+      <c r="C23" t="s">
+        <v>3</v>
+      </c>
+      <c r="D23" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B24" t="s">
+        <v>22</v>
+      </c>
+      <c r="C24" t="s">
+        <v>3</v>
+      </c>
+      <c r="D24" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A28" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="B28" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="C28" s="1"/>
+      <c r="D28" s="2" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A29" t="s">
+        <v>2</v>
+      </c>
+      <c r="B29" t="s">
+        <v>27</v>
+      </c>
+      <c r="C29" t="s">
+        <v>3</v>
+      </c>
+      <c r="D29" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B30" t="s">
+        <v>24</v>
+      </c>
+      <c r="C30" t="s">
+        <v>3</v>
+      </c>
+      <c r="D30" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="31" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B31" t="s">
+        <v>30</v>
+      </c>
+      <c r="C31" t="s">
+        <v>3</v>
+      </c>
+      <c r="D31" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="32" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B32" t="s">
+        <v>32</v>
+      </c>
+      <c r="C32" t="s">
+        <v>3</v>
+      </c>
+      <c r="D32" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="33" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B33" t="s">
+        <v>34</v>
+      </c>
+      <c r="C33" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="34" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B34" t="s">
+        <v>35</v>
+      </c>
+      <c r="C34" t="s">
+        <v>3</v>
+      </c>
+      <c r="D34" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="35" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B35" t="s">
+        <v>36</v>
+      </c>
+      <c r="C35" t="s">
+        <v>3</v>
+      </c>
+      <c r="D35" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="36" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B36" t="s">
+        <v>38</v>
+      </c>
+      <c r="C36" t="s">
+        <v>3</v>
+      </c>
+      <c r="D36" t="s">
+        <v>39</v>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>